--- a/code/outputs/extract_p2_true_pred_results.xlsx
+++ b/code/outputs/extract_p2_true_pred_results.xlsx
@@ -100,6 +100,177 @@
     <t>appointed agents</t>
   </si>
   <si>
+    <t>named party</t>
+  </si>
+  <si>
+    <t>registered mail</t>
+  </si>
+  <si>
+    <t>certified mail</t>
+  </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>managing agent</t>
+  </si>
+  <si>
+    <t>trustee</t>
+  </si>
+  <si>
+    <t>unincorporated organization</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>non-resident</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>corporation</t>
+  </si>
+  <si>
+    <t>principal office</t>
+  </si>
+  <si>
+    <t>place of business</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>initiation of the proceeding</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>matter</t>
+  </si>
+  <si>
+    <t>interested person</t>
+  </si>
+  <si>
+    <t>period of time</t>
+  </si>
+  <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>reasons</t>
+  </si>
+  <si>
+    <t>nature of interest</t>
+  </si>
+  <si>
+    <t>public interest</t>
+  </si>
+  <si>
+    <t>protection of investors</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>investment adviser</t>
+  </si>
+  <si>
+    <t>small business</t>
+  </si>
+  <si>
+    <t>small organization</t>
+  </si>
+  <si>
+    <t>assets under management</t>
+  </si>
+  <si>
+    <t>total assets</t>
+  </si>
+  <si>
+    <t>fiscal year</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>natural person</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>policies</t>
+  </si>
+  <si>
+    <t>ownership of securities</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>right to vote</t>
+  </si>
+  <si>
+    <t>voting securities</t>
+  </si>
+  <si>
+    <t>right to receive upon dissolution</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>limited liability company (llc)</t>
+  </si>
+  <si>
+    <t>elected manager</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>balance sheet</t>
+  </si>
+  <si>
+    <t>subsidiaries</t>
+  </si>
+  <si>
+    <t>last address filed with the commission</t>
+  </si>
+  <si>
+    <t>evidence of service</t>
+  </si>
+  <si>
+    <t>order disposing of the matter</t>
+  </si>
+  <si>
+    <t>order of the commission</t>
+  </si>
+  <si>
+    <t>application for registration</t>
+  </si>
+  <si>
+    <t>securities</t>
+  </si>
+  <si>
+    <t>dissolution</t>
+  </si>
+  <si>
     <t>process</t>
   </si>
   <si>
@@ -109,193 +280,22 @@
     <t>papers</t>
   </si>
   <si>
-    <t>named party</t>
+    <t>last address</t>
+  </si>
+  <si>
+    <t>earliest date</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>interests of the llc</t>
   </si>
   <si>
     <t>commission's records</t>
   </si>
   <si>
-    <t>last address</t>
-  </si>
-  <si>
-    <t>last address filed with the commission</t>
-  </si>
-  <si>
-    <t>registered mail</t>
-  </si>
-  <si>
-    <t>certified mail</t>
-  </si>
-  <si>
-    <t>evidence of service</t>
-  </si>
-  <si>
-    <t>certification</t>
-  </si>
-  <si>
-    <t>managing agent</t>
-  </si>
-  <si>
-    <t>trustee</t>
-  </si>
-  <si>
-    <t>unincorporated organization</t>
-  </si>
-  <si>
-    <t>association</t>
-  </si>
-  <si>
-    <t>partnership</t>
-  </si>
-  <si>
     <t>jurisdiction of the united states</t>
-  </si>
-  <si>
-    <t>non-resident</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>corporation</t>
-  </si>
-  <si>
-    <t>principal office</t>
-  </si>
-  <si>
-    <t>place of business</t>
-  </si>
-  <si>
-    <t>earliest date</t>
-  </si>
-  <si>
-    <t>order disposing of the matter</t>
-  </si>
-  <si>
-    <t>notice</t>
-  </si>
-  <si>
-    <t>initiation of the proceeding</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>matter</t>
-  </si>
-  <si>
-    <t>interested person</t>
-  </si>
-  <si>
-    <t>period of time</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>hearing</t>
-  </si>
-  <si>
-    <t>reasons</t>
-  </si>
-  <si>
-    <t>nature of interest</t>
-  </si>
-  <si>
-    <t>motion</t>
-  </si>
-  <si>
-    <t>public interest</t>
-  </si>
-  <si>
-    <t>protection of investors</t>
-  </si>
-  <si>
-    <t>order of the commission</t>
-  </si>
-  <si>
-    <t>application for registration</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
-    <t>registration</t>
-  </si>
-  <si>
-    <t>investment adviser</t>
-  </si>
-  <si>
-    <t>small business</t>
-  </si>
-  <si>
-    <t>small organization</t>
-  </si>
-  <si>
-    <t>assets under management</t>
-  </si>
-  <si>
-    <t>total assets</t>
-  </si>
-  <si>
-    <t>fiscal year</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>natural person</t>
-  </si>
-  <si>
-    <t>securities</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>policies</t>
-  </si>
-  <si>
-    <t>ownership of securities</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>right to vote</t>
-  </si>
-  <si>
-    <t>voting securities</t>
-  </si>
-  <si>
-    <t>dissolution</t>
-  </si>
-  <si>
-    <t>right to receive upon dissolution</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>interests of the llc</t>
-  </si>
-  <si>
-    <t>limited liability company (llc)</t>
-  </si>
-  <si>
-    <t>elected manager</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>balance sheet</t>
-  </si>
-  <si>
-    <t>subsidiaries</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -824,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -838,10 +838,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -852,10 +852,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -866,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -880,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -894,10 +894,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -908,10 +908,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -922,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -950,10 +950,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -964,10 +964,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -978,10 +978,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1006,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1020,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1034,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1048,10 +1048,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1062,10 +1062,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1076,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1090,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -1314,10 +1314,10 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1328,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1342,10 +1342,10 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1356,10 +1356,10 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
@@ -1384,10 +1384,10 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1398,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1412,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -1720,10 +1720,10 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1734,10 +1734,10 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -1748,10 +1748,10 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -1762,10 +1762,10 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1776,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -1790,10 +1790,10 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -1804,10 +1804,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -1818,10 +1818,10 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -1832,10 +1832,10 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -1846,10 +1846,10 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -1860,10 +1860,10 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -1874,10 +1874,10 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -1888,10 +1888,10 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -1902,10 +1902,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
         <v>74</v>
@@ -1930,10 +1930,10 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>75</v>
@@ -1958,10 +1958,10 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1972,10 +1972,10 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -1986,10 +1986,10 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2000,10 +2000,10 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2014,10 +2014,10 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2028,10 +2028,10 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -2042,10 +2042,10 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2140,10 +2140,10 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2165,13 +2165,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -2235,13 +2235,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2308,10 +2308,10 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2361,13 +2361,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
